--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="177">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="176">
   <si>
     <t>Table 5: Demographic estimates</t>
   </si>
@@ -1454,11 +1451,9 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1472,48 +1467,48 @@
     </row>
     <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="C3" s="13">
         <v>32866.267999999996</v>
@@ -1549,10 +1544,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="19">
         <v>2351.625</v>
@@ -1564,16 +1559,16 @@
         <v>703.55399999999997</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="21">
         <v>7.2676039359281503</v>
@@ -1587,10 +1582,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="C5" s="25">
         <v>1160.164</v>
@@ -1602,16 +1597,16 @@
         <v>1091.4000000000001</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="27">
         <v>6.8542865976649301</v>
@@ -1625,10 +1620,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="25">
         <v>2142.252</v>
@@ -1640,16 +1635,16 @@
         <v>1648.125</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="27">
         <v>7.8787766188694404</v>
@@ -1663,10 +1658,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="25">
         <v>19129.955000000002</v>
@@ -1701,10 +1696,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="25">
         <v>31255.435000000001</v>
@@ -1739,10 +1734,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="C9" s="25">
         <v>2540.9160000000002</v>
@@ -1760,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="27">
         <v>6.01957859382411</v>
@@ -1777,10 +1772,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="25">
         <v>59308.69</v>
@@ -1815,10 +1810,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="19">
         <v>18383.955999999998</v>
@@ -1853,10 +1848,10 @@
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="30">
         <v>14862.927</v>
@@ -1891,10 +1886,10 @@
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>36</v>
       </c>
       <c r="C13" s="36">
         <v>184002.18799999999</v>
@@ -1929,10 +1924,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="25">
         <v>11890.781000000001</v>
@@ -1944,10 +1939,10 @@
         <v>10302.641</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="25">
         <v>1012.996</v>
@@ -1967,10 +1962,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="C15" s="25">
         <v>26545.864000000001</v>
@@ -2005,10 +2000,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>42</v>
       </c>
       <c r="C16" s="25">
         <v>4829.7640000000001</v>
@@ -2026,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="27">
         <v>5.2145383380060197</v>
@@ -2043,10 +2038,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>44</v>
       </c>
       <c r="C17" s="13">
         <v>16425.859</v>
@@ -2058,10 +2053,10 @@
         <v>12454.833000000001</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="13">
         <v>1422.547</v>
@@ -2081,10 +2076,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="13">
         <v>5518.0919999999996</v>
@@ -2096,10 +2091,10 @@
         <v>1829.5640000000001</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="13">
         <v>3602.3710000000001</v>
@@ -2119,10 +2114,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="19">
         <v>89561.403999999995</v>
@@ -2157,10 +2152,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>1402.9849999999999</v>
@@ -2178,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="15">
         <v>3.9144106358749902</v>
@@ -2195,10 +2190,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="13">
         <v>2225.7280000000001</v>
@@ -2216,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="15">
         <v>5.9602910331555599</v>
@@ -2233,10 +2228,10 @@
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="25">
         <v>219.161</v>
@@ -2248,16 +2243,16 @@
         <v>55.91</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="27">
         <v>5.4464647132200499</v>
@@ -2271,10 +2266,10 @@
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="36">
         <v>158619.63800000001</v>
@@ -2309,10 +2304,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="C24" s="25">
         <v>869.59500000000003</v>
@@ -2324,16 +2319,16 @@
         <v>614.11400000000003</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" s="27">
         <v>5.3658429966857204</v>
@@ -2347,10 +2342,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="C25" s="25">
         <v>988.00199999999995</v>
@@ -2368,10 +2363,10 @@
         <v>1</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" s="27">
         <v>7.0902099266903296</v>
@@ -2385,10 +2380,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="C26" s="25">
         <v>3546.4270000000001</v>
@@ -2406,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" s="27">
         <v>8.2887438444722807</v>
@@ -2423,10 +2418,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="C27" s="25">
         <v>114963.583</v>
@@ -2461,10 +2456,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="25">
         <v>53771.3</v>
@@ -2499,10 +2494,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="C29" s="25">
         <v>27691.019</v>
@@ -2537,10 +2532,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="C30" s="25">
         <v>1271.7670000000001</v>
@@ -2552,16 +2547,16 @@
         <v>754.78399999999999</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="27">
         <v>17.709900909708701</v>
@@ -2575,10 +2570,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="C31" s="25">
         <v>12952.209000000001</v>
@@ -2590,10 +2585,10 @@
         <v>10805.843000000001</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="25">
         <v>1132.1010000000001</v>
@@ -2613,10 +2608,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="C32" s="25">
         <v>98.34</v>
@@ -2628,16 +2623,16 @@
         <v>40.804000000000002</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" s="27">
         <v>11.8339399725521</v>
@@ -2651,10 +2646,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>75</v>
       </c>
       <c r="C33" s="25">
         <v>15893.218999999999</v>
@@ -2689,10 +2684,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="C34" s="19">
         <v>11193.728999999999</v>
@@ -2710,10 +2705,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" s="21">
         <v>6.06077146604646</v>
@@ -2727,10 +2722,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="25">
         <v>43849.269</v>
@@ -2765,10 +2760,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="25">
         <v>59734.213000000003</v>
@@ -2803,10 +2798,10 @@
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>83</v>
       </c>
       <c r="C37" s="25">
         <v>45741</v>
@@ -2818,10 +2813,10 @@
         <v>35412.690999999999</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="25">
         <v>3298.364</v>
@@ -2841,10 +2836,10 @@
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="36">
         <v>392563.67200000002</v>
@@ -2879,10 +2874,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="13">
         <v>43851.042999999998</v>
@@ -2917,10 +2912,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="25">
         <v>102334.40300000001</v>
@@ -2955,10 +2950,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="41" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="13">
         <v>6871.2870000000003</v>
@@ -2993,10 +2988,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="13">
         <v>4649.66</v>
@@ -3008,10 +3003,10 @@
         <v>2137.0529999999999</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H42" s="13">
         <v>1314.636</v>
@@ -3031,10 +3026,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="25">
         <v>36910.557999999997</v>
@@ -3069,10 +3064,10 @@
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="25">
         <v>11818.618</v>
@@ -3107,10 +3102,10 @@
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="36">
         <v>206435.56899999999</v>
@@ -3145,10 +3140,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>99</v>
       </c>
       <c r="C46" s="25">
         <v>12123.198</v>
@@ -3183,10 +3178,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="C47" s="25">
         <v>20903.277999999998</v>
@@ -3221,10 +3216,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="C48" s="25">
         <v>555.98800000000006</v>
@@ -3236,16 +3231,16 @@
         <v>189.2</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" s="27">
         <v>7.1298630665484302</v>
@@ -3259,10 +3254,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="C49" s="25">
         <v>26378.275000000001</v>
@@ -3297,10 +3292,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>107</v>
       </c>
       <c r="C50" s="25">
         <v>2416.6640000000002</v>
@@ -3318,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" s="27">
         <v>4.7297699559519701</v>
@@ -3335,10 +3330,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="19">
         <v>31072.945</v>
@@ -3373,10 +3368,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="C52" s="25">
         <v>13132.791999999999</v>
@@ -3388,10 +3383,10 @@
         <v>8680.17</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H52" s="25">
         <v>1938.2719999999999</v>
@@ -3411,10 +3406,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="C53" s="25">
         <v>1967.998</v>
@@ -3432,10 +3427,10 @@
         <v>1</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" s="27">
         <v>5.2290855453424703</v>
@@ -3449,10 +3444,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="C54" s="25">
         <v>5057.6769999999997</v>
@@ -3464,10 +3459,10 @@
         <v>2445.2919999999999</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="25">
         <v>1517.2349999999999</v>
@@ -3487,10 +3482,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>117</v>
       </c>
       <c r="C55" s="25">
         <v>20250.833999999999</v>
@@ -3525,10 +3520,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>119</v>
       </c>
       <c r="C56" s="25">
         <v>24206.635999999999</v>
@@ -3563,10 +3558,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="41" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>121</v>
       </c>
       <c r="C57" s="13">
         <v>206139.587</v>
@@ -3601,10 +3596,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="C58" s="25">
         <v>16743.93</v>
@@ -3639,10 +3634,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>124</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="C59" s="25">
         <v>7976.9849999999997</v>
@@ -3654,10 +3649,10 @@
         <v>4592.96</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H59" s="25">
         <v>1201.9000000000001</v>
@@ -3677,10 +3672,10 @@
     </row>
     <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C60" s="19">
         <v>8278.7369999999992</v>
@@ -3692,10 +3687,10 @@
         <v>4795.8270000000002</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H60" s="19">
         <v>1827.8779999999999</v>
@@ -3715,10 +3710,10 @@
     </row>
     <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="36">
         <v>397205.52399999998</v>
@@ -3753,10 +3748,10 @@
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="44">
         <v>1338826.591</v>
@@ -3791,10 +3786,10 @@
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="44">
         <v>6411203.2800000003</v>
@@ -3829,10 +3824,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="50">
         <v>649376.32299999997</v>
@@ -3867,10 +3862,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="55">
         <v>4231222.443</v>
@@ -3905,10 +3900,10 @@
     </row>
     <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="60">
         <v>7750029.8710000003</v>
@@ -3943,10 +3938,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="55">
         <v>597649.22499999998</v>
@@ -3981,10 +3976,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="55">
         <v>640578.52</v>
@@ -4019,10 +4014,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="55">
         <v>195283.23199999999</v>
@@ -4057,10 +4052,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="55">
         <v>204438.11499999999</v>
@@ -4095,10 +4090,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="55">
         <v>397205.52399999998</v>
@@ -4133,10 +4128,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="55">
         <v>289946.52899999998</v>
@@ -4171,10 +4166,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="55">
         <v>363228.52600000001</v>
@@ -4209,10 +4204,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="55">
         <v>104101.166</v>
@@ -4247,10 +4242,10 @@
     </row>
     <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="60">
         <v>68267.835000000006</v>
@@ -4285,10 +4280,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="55">
         <v>667301.41200000001</v>
@@ -4323,10 +4318,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="55">
         <v>430457.60700000002</v>
@@ -4361,10 +4356,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="55">
         <v>445250.522</v>
@@ -4399,10 +4394,10 @@
     </row>
     <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C79" s="60">
         <v>1369446.4680000001</v>
@@ -4437,10 +4432,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" s="55">
         <v>319950.50900000002</v>
@@ -4475,10 +4470,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81" s="55">
         <v>478454.00900000002</v>
@@ -4513,10 +4508,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C82" s="55">
         <v>1018876.0820000001</v>
@@ -4551,10 +4546,10 @@
     </row>
     <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C83" s="60">
         <v>5932749.2709999997</v>
@@ -4589,10 +4584,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="55">
         <v>553115.25399999996</v>
@@ -4627,10 +4622,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C85" s="55">
         <v>112033.781</v>
@@ -4665,10 +4660,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="55">
         <v>709639.99899999995</v>
@@ -4703,10 +4698,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87" s="55">
         <v>2614472.335</v>
@@ -4741,10 +4736,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="55">
         <v>75972.998000000007</v>
@@ -4779,10 +4774,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="55">
         <v>2479435.0150000001</v>
@@ -4817,10 +4812,10 @@
     </row>
     <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C90" s="60">
         <v>1176924.5460000001</v>
@@ -4855,10 +4850,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C91" s="55">
         <v>701835.48899999994</v>
@@ -4893,10 +4888,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C92" s="55">
         <v>355602.674</v>
@@ -4931,10 +4926,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" s="55">
         <v>4982.8490000000002</v>
@@ -4952,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J93" s="57">
         <v>8.7858495340095804</v>
@@ -4969,10 +4964,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C94" s="55">
         <v>61906.239000000001</v>
@@ -5007,10 +5002,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" s="55">
         <v>341388.55200000003</v>
@@ -5045,10 +5040,10 @@
     </row>
     <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" s="59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C96" s="60">
         <v>191754.84599999999</v>
@@ -5083,10 +5078,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="55">
         <v>983317.51699999999</v>
@@ -5121,10 +5116,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="55">
         <v>793690.02399999998</v>
@@ -5159,10 +5154,10 @@
     </row>
     <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C99" s="60">
         <v>337042.11900000001</v>
@@ -5211,27 +5206,27 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="67" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5239,27 +5234,27 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5269,7 +5264,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</t>
   </si>
   <si>
@@ -544,88 +547,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -638,7 +563,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000000000000_);\(#,##0.0000000000000\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,15 +679,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1437,7 +1353,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5224,18 +5140,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="70" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="67" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="70"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="70" t="s">
         <v>171</v>
       </c>
+    </row>
+    <row r="109" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="70"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -5248,25 +5164,27 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</t>
@@ -4810,13 +4810,13 @@
         <v>158</v>
       </c>
       <c r="C92" s="55">
-        <v>355602.674</v>
+        <v>355295.52399999998</v>
       </c>
       <c r="D92" s="55">
-        <v>123717.353</v>
+        <v>123642.32799999999</v>
       </c>
       <c r="E92" s="56">
-        <v>237970.05100000001</v>
+        <v>237751.14199999999</v>
       </c>
       <c r="F92" s="55">
         <v>13243.184999999999</v>
@@ -4831,13 +4831,13 @@
         <v>9</v>
       </c>
       <c r="J92" s="57">
-        <v>7.2407950169555804</v>
+        <v>7.3256891850258503</v>
       </c>
       <c r="K92" s="57">
-        <v>54.543864022087</v>
+        <v>53.568771481631103</v>
       </c>
       <c r="L92" s="58">
-        <v>61.784659039042602</v>
+        <v>60.894460666656997</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab05.xlsx
+++ b/AfDD_2022_Annex_Table_Tab05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab05" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <t>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -5182,7 +5182,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId6"/>
